--- a/Code/Results/Cases/Case_0_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.13636408394632</v>
+        <v>13.80322018070584</v>
       </c>
       <c r="D2">
-        <v>6.244517938851978</v>
+        <v>9.963430740211422</v>
       </c>
       <c r="E2">
-        <v>11.35289432997872</v>
+        <v>14.22233482818651</v>
       </c>
       <c r="F2">
-        <v>45.35103054547538</v>
+        <v>49.57049264396144</v>
       </c>
       <c r="G2">
-        <v>2.084506712229894</v>
+        <v>3.762739942625077</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28.89217647772295</v>
+        <v>26.66393156544392</v>
       </c>
       <c r="L2">
-        <v>6.047417527952107</v>
+        <v>9.53081723043509</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.63425388881352</v>
+        <v>20.92828258803572</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.51554535917011</v>
+        <v>13.72902614733063</v>
       </c>
       <c r="D3">
-        <v>6.295733663046326</v>
+        <v>9.997839943315011</v>
       </c>
       <c r="E3">
-        <v>10.85393142217832</v>
+        <v>14.18370385081651</v>
       </c>
       <c r="F3">
-        <v>43.25259143613579</v>
+        <v>49.30508043983612</v>
       </c>
       <c r="G3">
-        <v>2.10101162063354</v>
+        <v>3.768115448607392</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.03326122103336</v>
+        <v>26.29014404638485</v>
       </c>
       <c r="L3">
-        <v>5.93393955644181</v>
+        <v>9.543643255067462</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.92049635745562</v>
+        <v>20.99936157231682</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.13380316377313</v>
+        <v>13.68719552942605</v>
       </c>
       <c r="D4">
-        <v>6.333869687998275</v>
+        <v>10.0206737149923</v>
       </c>
       <c r="E4">
-        <v>10.5509288915697</v>
+        <v>14.1636433364695</v>
       </c>
       <c r="F4">
-        <v>41.98499867142627</v>
+        <v>49.15657148312435</v>
       </c>
       <c r="G4">
-        <v>2.111259802641428</v>
+        <v>3.771579468851736</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>25.86384725606429</v>
+        <v>26.0666641235117</v>
       </c>
       <c r="L4">
-        <v>5.869114701244662</v>
+        <v>9.553296380009092</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.09987726471905</v>
+        <v>21.04507178049883</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.97815225626199</v>
+        <v>13.67109563928436</v>
       </c>
       <c r="D5">
-        <v>6.350934488770761</v>
+        <v>10.03040605334168</v>
       </c>
       <c r="E5">
-        <v>10.42832040910785</v>
+        <v>14.15639069707033</v>
       </c>
       <c r="F5">
-        <v>41.47366108347801</v>
+        <v>49.09971405037496</v>
       </c>
       <c r="G5">
-        <v>2.115472253736922</v>
+        <v>3.773032379505713</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.38028763703613</v>
+        <v>25.97721861803707</v>
       </c>
       <c r="L5">
-        <v>5.843861884948025</v>
+        <v>9.557676068592997</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.17389988109811</v>
+        <v>21.06421941219732</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.95230366272072</v>
+        <v>13.66847968277914</v>
       </c>
       <c r="D6">
-        <v>6.353855907202388</v>
+        <v>10.03204786534108</v>
       </c>
       <c r="E6">
-        <v>10.40801500299462</v>
+        <v>14.15524214094189</v>
       </c>
       <c r="F6">
-        <v>41.38907067726475</v>
+        <v>49.09049468908292</v>
       </c>
       <c r="G6">
-        <v>2.116174120324418</v>
+        <v>3.773276134035017</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.29957316016909</v>
+        <v>25.96246747560656</v>
       </c>
       <c r="L6">
-        <v>5.839737422067686</v>
+        <v>9.558430213689977</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.18624748546081</v>
+        <v>21.06743030433119</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.13170425358864</v>
+        <v>13.68697455680461</v>
       </c>
       <c r="D7">
-        <v>6.334093852752538</v>
+        <v>10.02080324041046</v>
       </c>
       <c r="E7">
-        <v>10.54927178602249</v>
+        <v>14.16354178890814</v>
       </c>
       <c r="F7">
-        <v>41.97808141005007</v>
+        <v>49.15578982970774</v>
       </c>
       <c r="G7">
-        <v>2.111316457192069</v>
+        <v>3.771598895852334</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>25.85735404827048</v>
+        <v>26.06545111199051</v>
       </c>
       <c r="L7">
-        <v>5.868769490967223</v>
+        <v>9.553353641842016</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.10087180167723</v>
+        <v>21.04532790459396</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.92243724460986</v>
+        <v>13.77687131985278</v>
       </c>
       <c r="D8">
-        <v>6.260686807458186</v>
+        <v>9.974939844503343</v>
       </c>
       <c r="E8">
-        <v>11.18015633681487</v>
+        <v>14.20825696676342</v>
       </c>
       <c r="F8">
-        <v>44.62309657966704</v>
+        <v>49.47599595782126</v>
       </c>
       <c r="G8">
-        <v>2.090178758427416</v>
+        <v>3.764559614283276</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.2570156315975</v>
+        <v>26.53386502221132</v>
       </c>
       <c r="L8">
-        <v>6.007247971417631</v>
+        <v>9.534869999207684</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.73220261168988</v>
+        <v>20.95236181518629</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.4692469490552</v>
+        <v>13.98221465500236</v>
       </c>
       <c r="D9">
-        <v>6.178211128193386</v>
+        <v>9.898618866770809</v>
       </c>
       <c r="E9">
-        <v>12.44517729142039</v>
+        <v>14.32484300587248</v>
       </c>
       <c r="F9">
-        <v>49.9860507480324</v>
+        <v>50.21718008034706</v>
       </c>
       <c r="G9">
-        <v>2.049235993525174</v>
+        <v>3.75204342538382</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.1199540780018</v>
+        <v>27.49531771502282</v>
       </c>
       <c r="L9">
-        <v>6.320208617747089</v>
+        <v>9.512777681762879</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.03789583495762</v>
+        <v>20.78643667288109</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.60922736190201</v>
+        <v>14.15003287490983</v>
       </c>
       <c r="D10">
-        <v>6.169171431912072</v>
+        <v>9.85095654472517</v>
       </c>
       <c r="E10">
-        <v>13.3972195555026</v>
+        <v>14.4278788112044</v>
       </c>
       <c r="F10">
-        <v>54.06598336124143</v>
+        <v>50.82847086955582</v>
       </c>
       <c r="G10">
-        <v>2.01879882506106</v>
+        <v>3.743620260509267</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>36.611597446415</v>
+        <v>28.22112532213283</v>
       </c>
       <c r="L10">
-        <v>6.580336866942702</v>
+        <v>9.50523669349989</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.54604918541573</v>
+        <v>20.6744842531921</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>15.13156403563959</v>
+        <v>14.22986987016353</v>
       </c>
       <c r="D11">
-        <v>6.18024773390938</v>
+        <v>9.831124652246173</v>
       </c>
       <c r="E11">
-        <v>13.83789776367162</v>
+        <v>14.47845596500485</v>
       </c>
       <c r="F11">
-        <v>55.96587492177952</v>
+        <v>51.12045190046405</v>
       </c>
       <c r="G11">
-        <v>2.004683374936642</v>
+        <v>3.739953363194101</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>38.16993382312381</v>
+        <v>28.55409920636929</v>
       </c>
       <c r="L11">
-        <v>6.706704655583794</v>
+        <v>9.503704603747378</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.32688194857611</v>
+        <v>20.62570889824559</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.33028772569535</v>
+        <v>14.26058702901937</v>
       </c>
       <c r="D12">
-        <v>6.187045172748815</v>
+        <v>9.823882994566373</v>
       </c>
       <c r="E12">
-        <v>14.00620935462699</v>
+        <v>14.49813359801814</v>
       </c>
       <c r="F12">
-        <v>56.69332531480605</v>
+        <v>51.23295802957003</v>
       </c>
       <c r="G12">
-        <v>1.999278996699366</v>
+        <v>3.738588296109392</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>38.7569846830462</v>
+        <v>28.68047223652705</v>
       </c>
       <c r="L12">
-        <v>6.755875254923567</v>
+        <v>9.503398173332926</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.24464959690226</v>
+        <v>20.60754815001287</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.2874401977383</v>
+        <v>14.25395028333904</v>
       </c>
       <c r="D13">
-        <v>6.185457850898454</v>
+        <v>9.825430648445947</v>
       </c>
       <c r="E13">
-        <v>13.9698897260716</v>
+        <v>14.49387244285385</v>
       </c>
       <c r="F13">
-        <v>56.53626687189978</v>
+        <v>51.20864257060622</v>
       </c>
       <c r="G13">
-        <v>2.000445934224732</v>
+        <v>3.738881245373675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>38.63066534831666</v>
+        <v>28.65324483255714</v>
       </c>
       <c r="L13">
-        <v>6.745223813298841</v>
+        <v>9.50345198294958</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26232370020712</v>
+        <v>20.61144563130953</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.1478918894109</v>
+        <v>14.23238738362169</v>
       </c>
       <c r="D14">
-        <v>6.180752087637735</v>
+        <v>9.830523487598027</v>
       </c>
       <c r="E14">
-        <v>13.85171365479509</v>
+        <v>14.48006437789491</v>
       </c>
       <c r="F14">
-        <v>56.02555060824219</v>
+        <v>51.12966933981807</v>
       </c>
       <c r="G14">
-        <v>2.004240073139382</v>
+        <v>3.739840588311798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>38.21828380548394</v>
+        <v>28.56449099525033</v>
       </c>
       <c r="L14">
-        <v>6.710722451840693</v>
+        <v>9.503673903398823</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.32010059550765</v>
+        <v>20.62420860164287</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15.06254892016785</v>
+        <v>14.21924204452826</v>
       </c>
       <c r="D15">
-        <v>6.178222556326269</v>
+        <v>9.833677999886817</v>
       </c>
       <c r="E15">
-        <v>13.77952678743751</v>
+        <v>14.47167468753699</v>
       </c>
       <c r="F15">
-        <v>55.71382410776435</v>
+        <v>51.08154665450284</v>
       </c>
       <c r="G15">
-        <v>2.006555701632157</v>
+        <v>3.740431269059409</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>37.96533266270073</v>
+        <v>28.5101600599677</v>
       </c>
       <c r="L15">
-        <v>6.68976655592463</v>
+        <v>9.503845505814031</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.35559376749075</v>
+        <v>20.63206658340817</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.57519699300104</v>
+        <v>14.14488416092639</v>
       </c>
       <c r="D16">
-        <v>6.168787147640365</v>
+        <v>9.852290020310335</v>
       </c>
       <c r="E16">
-        <v>13.36859970032348</v>
+        <v>14.42464740377152</v>
       </c>
       <c r="F16">
-        <v>53.94283645914306</v>
+        <v>50.80966394913637</v>
       </c>
       <c r="G16">
-        <v>2.019714238588286</v>
+        <v>3.743863201115876</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>36.50925334951408</v>
+        <v>28.19941076450156</v>
       </c>
       <c r="L16">
-        <v>6.572253058798524</v>
+        <v>9.505375085815421</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.56047205378281</v>
+        <v>20.67771513974667</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.27741820031626</v>
+        <v>14.10015080833689</v>
       </c>
       <c r="D17">
-        <v>6.16716188201994</v>
+        <v>9.86418327321854</v>
       </c>
       <c r="E17">
-        <v>13.11866206954882</v>
+        <v>14.39674159220981</v>
       </c>
       <c r="F17">
-        <v>52.86867314931585</v>
+        <v>50.64639214867022</v>
       </c>
       <c r="G17">
-        <v>2.027704417258997</v>
+        <v>3.746010660552404</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.60911215659983</v>
+        <v>28.00940752722104</v>
       </c>
       <c r="L17">
-        <v>6.502323166544442</v>
+        <v>9.506800215920439</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68738857661411</v>
+        <v>20.7062702436834</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.10646685164704</v>
+        <v>14.07475154218981</v>
       </c>
       <c r="D18">
-        <v>6.167627255140292</v>
+        <v>9.871197945443184</v>
       </c>
       <c r="E18">
-        <v>12.97559195073911</v>
+        <v>14.38104021935738</v>
       </c>
       <c r="F18">
-        <v>52.25484585865428</v>
+        <v>50.55379490462071</v>
       </c>
       <c r="G18">
-        <v>2.032276251132504</v>
+        <v>3.747261349996491</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.08845748459798</v>
+        <v>27.90039331179093</v>
       </c>
       <c r="L18">
-        <v>6.462845733178739</v>
+        <v>9.507798554935253</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.76080966490034</v>
+        <v>20.72289697685333</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.04863149665519</v>
+        <v>14.06620902834271</v>
       </c>
       <c r="D19">
-        <v>6.168013850862227</v>
+        <v>9.873602808458367</v>
       </c>
       <c r="E19">
-        <v>12.92726031382875</v>
+        <v>14.37578421928244</v>
       </c>
       <c r="F19">
-        <v>52.04765928085087</v>
+        <v>50.52267022072557</v>
       </c>
       <c r="G19">
-        <v>2.033820640042453</v>
+        <v>3.747687484812619</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>34.91163795846138</v>
+        <v>27.86353313456089</v>
       </c>
       <c r="L19">
-        <v>6.449602904952472</v>
+        <v>9.508167232543151</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.78573892381287</v>
+        <v>20.72856130190206</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.30908143867271</v>
+        <v>14.10487870578927</v>
       </c>
       <c r="D20">
-        <v>6.167187207355866</v>
+        <v>9.86289919311665</v>
       </c>
       <c r="E20">
-        <v>13.14519509367369</v>
+        <v>14.3996761140755</v>
       </c>
       <c r="F20">
-        <v>52.98259487714603</v>
+        <v>50.66363730395975</v>
       </c>
       <c r="G20">
-        <v>2.0268564567551</v>
+        <v>3.745780454208641</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.70522744736191</v>
+        <v>28.02960656228396</v>
       </c>
       <c r="L20">
-        <v>6.509689235397535</v>
+        <v>9.506630013829033</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.67383382692367</v>
+        <v>20.703209537362</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.18885171328888</v>
+        <v>14.23870792616153</v>
       </c>
       <c r="D21">
-        <v>6.18205987150834</v>
+        <v>9.829020298982639</v>
       </c>
       <c r="E21">
-        <v>13.88638248349036</v>
+        <v>14.48410595424259</v>
       </c>
       <c r="F21">
-        <v>56.17532686590094</v>
+        <v>51.15281355923464</v>
       </c>
       <c r="G21">
-        <v>2.003127434644083</v>
+        <v>3.739558169624834</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>38.33948165830789</v>
+        <v>28.59055340782293</v>
       </c>
       <c r="L21">
-        <v>6.720819059268222</v>
+        <v>9.503601285225423</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.30310835918938</v>
+        <v>20.62045141072534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.76951595125511</v>
+        <v>14.32898876923323</v>
       </c>
       <c r="D22">
-        <v>6.207213605883129</v>
+        <v>9.808443125853552</v>
       </c>
       <c r="E22">
-        <v>14.37941955433568</v>
+        <v>14.54234260821584</v>
       </c>
       <c r="F22">
-        <v>58.30983442519353</v>
+        <v>51.48379128947094</v>
       </c>
       <c r="G22">
-        <v>1.987261089285093</v>
+        <v>3.73562847396561</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>40.04412374771914</v>
+        <v>28.95876086758516</v>
       </c>
       <c r="L22">
-        <v>6.866595936010773</v>
+        <v>9.503217677990467</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.06534805849684</v>
+        <v>20.56816772523521</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.45891917492817</v>
+        <v>14.2805527552102</v>
       </c>
       <c r="D23">
-        <v>6.192214421665889</v>
+        <v>9.819281632448922</v>
       </c>
       <c r="E23">
-        <v>14.11533880335484</v>
+        <v>14.51098367346628</v>
       </c>
       <c r="F23">
-        <v>57.165512213042</v>
+        <v>51.30613162880733</v>
       </c>
       <c r="G23">
-        <v>1.995770082951006</v>
+        <v>3.737713362849974</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>39.13537779690383</v>
+        <v>28.76213439297939</v>
       </c>
       <c r="L23">
-        <v>6.788013333538329</v>
+        <v>9.503276171108393</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.19178126798946</v>
+        <v>20.59590750358236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.2947657507748</v>
+        <v>14.102740229831</v>
       </c>
       <c r="D24">
-        <v>6.167171428329468</v>
+        <v>9.863479174325736</v>
       </c>
       <c r="E24">
-        <v>13.1331975993083</v>
+        <v>14.39834835075636</v>
       </c>
       <c r="F24">
-        <v>52.93107938573434</v>
+        <v>50.65583680934825</v>
       </c>
       <c r="G24">
-        <v>2.027239886206138</v>
+        <v>3.745884480375864</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.66178363168031</v>
+        <v>28.0204738805128</v>
       </c>
       <c r="L24">
-        <v>6.506356785402248</v>
+        <v>9.506706404668233</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.67996051877378</v>
+        <v>20.70459262850644</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.0508668567117</v>
+        <v>13.92362641806514</v>
       </c>
       <c r="D25">
-        <v>6.192637747791043</v>
+        <v>9.917796825550628</v>
       </c>
       <c r="E25">
-        <v>12.09961211276599</v>
+        <v>14.29023020232255</v>
       </c>
       <c r="F25">
-        <v>48.51402607656458</v>
+        <v>50.00476045402417</v>
       </c>
       <c r="G25">
-        <v>2.06031932714128</v>
+        <v>3.755292818234081</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>31.80057167396768</v>
+        <v>27.23131811722122</v>
       </c>
       <c r="L25">
-        <v>6.230657828989663</v>
+        <v>9.51723224210189</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.22263650694521</v>
+        <v>20.82957375051956</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_143/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.80322018070584</v>
+        <v>12.13636408394636</v>
       </c>
       <c r="D2">
-        <v>9.963430740211422</v>
+        <v>6.244517938851897</v>
       </c>
       <c r="E2">
-        <v>14.22233482818651</v>
+        <v>11.35289432997877</v>
       </c>
       <c r="F2">
-        <v>49.57049264396144</v>
+        <v>45.35103054547538</v>
       </c>
       <c r="G2">
-        <v>3.762739942625077</v>
+        <v>2.084506712230022</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.66393156544392</v>
+        <v>28.89217647772301</v>
       </c>
       <c r="L2">
-        <v>9.53081723043509</v>
+        <v>6.047417527952128</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.92828258803572</v>
+        <v>13.63425388881342</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.72902614733063</v>
+        <v>11.51554535917011</v>
       </c>
       <c r="D3">
-        <v>9.997839943315011</v>
+        <v>6.295733663046393</v>
       </c>
       <c r="E3">
-        <v>14.18370385081651</v>
+        <v>10.85393142217838</v>
       </c>
       <c r="F3">
-        <v>49.30508043983612</v>
+        <v>43.25259143613594</v>
       </c>
       <c r="G3">
-        <v>3.768115448607392</v>
+        <v>2.10101162063367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>26.29014404638485</v>
+        <v>27.03326122103334</v>
       </c>
       <c r="L3">
-        <v>9.543643255067462</v>
+        <v>5.933939556441866</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.99936157231682</v>
+        <v>13.92049635745577</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.68719552942605</v>
+        <v>11.13380316377319</v>
       </c>
       <c r="D4">
-        <v>10.0206737149923</v>
+        <v>6.333869687998313</v>
       </c>
       <c r="E4">
-        <v>14.1636433364695</v>
+        <v>10.5509288915697</v>
       </c>
       <c r="F4">
-        <v>49.15657148312435</v>
+        <v>41.98499867142627</v>
       </c>
       <c r="G4">
-        <v>3.771579468851736</v>
+        <v>2.111259802641033</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.0666641235117</v>
+        <v>25.86384725606424</v>
       </c>
       <c r="L4">
-        <v>9.553296380009092</v>
+        <v>5.869114701244656</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.04507178049883</v>
+        <v>14.09987726471913</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.67109563928436</v>
+        <v>10.97815225626187</v>
       </c>
       <c r="D5">
-        <v>10.03040605334168</v>
+        <v>6.350934488770835</v>
       </c>
       <c r="E5">
-        <v>14.15639069707033</v>
+        <v>10.42832040910779</v>
       </c>
       <c r="F5">
-        <v>49.09971405037496</v>
+        <v>41.47366108347791</v>
       </c>
       <c r="G5">
-        <v>3.773032379505713</v>
+        <v>2.115472253737315</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.97721861803707</v>
+        <v>25.38028763703613</v>
       </c>
       <c r="L5">
-        <v>9.557676068592997</v>
+        <v>5.843861884948019</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.06421941219732</v>
+        <v>14.17389988109808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.66847968277914</v>
+        <v>10.95230366272066</v>
       </c>
       <c r="D6">
-        <v>10.03204786534108</v>
+        <v>6.353855907202413</v>
       </c>
       <c r="E6">
-        <v>14.15524214094189</v>
+        <v>10.40801500299456</v>
       </c>
       <c r="F6">
-        <v>49.09049468908292</v>
+        <v>41.38907067726463</v>
       </c>
       <c r="G6">
-        <v>3.773276134035017</v>
+        <v>2.116174120324812</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.96246747560656</v>
+        <v>25.29957316016909</v>
       </c>
       <c r="L6">
-        <v>9.558430213689977</v>
+        <v>5.839737422067639</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.06743030433119</v>
+        <v>14.18624748546075</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.68697455680461</v>
+        <v>11.13170425358864</v>
       </c>
       <c r="D7">
-        <v>10.02080324041046</v>
+        <v>6.33409385275243</v>
       </c>
       <c r="E7">
-        <v>14.16354178890814</v>
+        <v>10.54927178602253</v>
       </c>
       <c r="F7">
-        <v>49.15578982970774</v>
+        <v>41.97808141005005</v>
       </c>
       <c r="G7">
-        <v>3.771598895852334</v>
+        <v>2.111316457191945</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.06545111199051</v>
+        <v>25.85735404827048</v>
       </c>
       <c r="L7">
-        <v>9.553353641842016</v>
+        <v>5.868769490967257</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.04532790459396</v>
+        <v>14.1008718016772</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.77687131985278</v>
+        <v>11.92243724460986</v>
       </c>
       <c r="D8">
-        <v>9.974939844503343</v>
+        <v>6.26068680745808</v>
       </c>
       <c r="E8">
-        <v>14.20825696676342</v>
+        <v>11.18015633681498</v>
       </c>
       <c r="F8">
-        <v>49.47599595782126</v>
+        <v>44.62309657966696</v>
       </c>
       <c r="G8">
-        <v>3.764559614283276</v>
+        <v>2.090178758427426</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>26.53386502221132</v>
+        <v>28.25701563159741</v>
       </c>
       <c r="L8">
-        <v>9.534869999207684</v>
+        <v>6.007247971417684</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.95236181518629</v>
+        <v>13.73220261168991</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.98221465500236</v>
+        <v>13.46924694905528</v>
       </c>
       <c r="D9">
-        <v>9.898618866770809</v>
+        <v>6.178211128193518</v>
       </c>
       <c r="E9">
-        <v>14.32484300587248</v>
+        <v>12.44517729142039</v>
       </c>
       <c r="F9">
-        <v>50.21718008034706</v>
+        <v>49.98605074803221</v>
       </c>
       <c r="G9">
-        <v>3.75204342538382</v>
+        <v>2.049235993525172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.49531771502282</v>
+        <v>33.11995407800154</v>
       </c>
       <c r="L9">
-        <v>9.512777681762879</v>
+        <v>6.320208617747067</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.78643667288109</v>
+        <v>13.03789583495769</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.15003287490983</v>
+        <v>14.60922736190203</v>
       </c>
       <c r="D10">
-        <v>9.85095654472517</v>
+        <v>6.169171431912144</v>
       </c>
       <c r="E10">
-        <v>14.4278788112044</v>
+        <v>13.39721955550263</v>
       </c>
       <c r="F10">
-        <v>50.82847086955582</v>
+        <v>54.06598336124154</v>
       </c>
       <c r="G10">
-        <v>3.743620260509267</v>
+        <v>2.018798825060924</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.22112532213283</v>
+        <v>36.61159744641506</v>
       </c>
       <c r="L10">
-        <v>9.50523669349989</v>
+        <v>6.58033686694269</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.6744842531921</v>
+        <v>12.54604918541571</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.22986987016353</v>
+        <v>15.1315640356395</v>
       </c>
       <c r="D11">
-        <v>9.831124652246173</v>
+        <v>6.180247733909443</v>
       </c>
       <c r="E11">
-        <v>14.47845596500485</v>
+        <v>13.8378977636716</v>
       </c>
       <c r="F11">
-        <v>51.12045190046405</v>
+        <v>55.96587492177947</v>
       </c>
       <c r="G11">
-        <v>3.739953363194101</v>
+        <v>2.004683374936767</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.55409920636929</v>
+        <v>38.16993382312378</v>
       </c>
       <c r="L11">
-        <v>9.503704603747378</v>
+        <v>6.706704655583803</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.62570889824559</v>
+        <v>12.32688194857616</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.26058702901937</v>
+        <v>15.33028772569534</v>
       </c>
       <c r="D12">
-        <v>9.823882994566373</v>
+        <v>6.1870451727488</v>
       </c>
       <c r="E12">
-        <v>14.49813359801814</v>
+        <v>14.00620935462699</v>
       </c>
       <c r="F12">
-        <v>51.23295802957003</v>
+        <v>56.69332531480612</v>
       </c>
       <c r="G12">
-        <v>3.738588296109392</v>
+        <v>1.999278996699366</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.68047223652705</v>
+        <v>38.75698468304621</v>
       </c>
       <c r="L12">
-        <v>9.503398173332926</v>
+        <v>6.755875254923556</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60754815001287</v>
+        <v>12.24464959690228</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.25395028333904</v>
+        <v>15.28744019773841</v>
       </c>
       <c r="D13">
-        <v>9.825430648445947</v>
+        <v>6.185457850898544</v>
       </c>
       <c r="E13">
-        <v>14.49387244285385</v>
+        <v>13.96988972607165</v>
       </c>
       <c r="F13">
-        <v>51.20864257060622</v>
+        <v>56.53626687189995</v>
       </c>
       <c r="G13">
-        <v>3.738881245373675</v>
+        <v>2.000445934224861</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.65324483255714</v>
+        <v>38.63066534831687</v>
       </c>
       <c r="L13">
-        <v>9.50345198294958</v>
+        <v>6.74522381329886</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.61144563130953</v>
+        <v>12.26232370020712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.23238738362169</v>
+        <v>15.14789188941085</v>
       </c>
       <c r="D14">
-        <v>9.830523487598027</v>
+        <v>6.180752087637735</v>
       </c>
       <c r="E14">
-        <v>14.48006437789491</v>
+        <v>13.85171365479506</v>
       </c>
       <c r="F14">
-        <v>51.12966933981807</v>
+        <v>56.02555060824226</v>
       </c>
       <c r="G14">
-        <v>3.739840588311798</v>
+        <v>2.004240073139643</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.56449099525033</v>
+        <v>38.21828380548403</v>
       </c>
       <c r="L14">
-        <v>9.503673903398823</v>
+        <v>6.710722451840666</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.62420860164287</v>
+        <v>12.32010059550763</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.21924204452826</v>
+        <v>15.0625489201679</v>
       </c>
       <c r="D15">
-        <v>9.833677999886817</v>
+        <v>6.178222556326316</v>
       </c>
       <c r="E15">
-        <v>14.47167468753699</v>
+        <v>13.77952678743752</v>
       </c>
       <c r="F15">
-        <v>51.08154665450284</v>
+        <v>55.71382410776449</v>
       </c>
       <c r="G15">
-        <v>3.740431269059409</v>
+        <v>2.006555701632028</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28.5101600599677</v>
+        <v>37.96533266270083</v>
       </c>
       <c r="L15">
-        <v>9.503845505814031</v>
+        <v>6.689766555924632</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.63206658340817</v>
+        <v>12.35559376749073</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.14488416092639</v>
+        <v>14.57519699300109</v>
       </c>
       <c r="D16">
-        <v>9.852290020310335</v>
+        <v>6.168787147640305</v>
       </c>
       <c r="E16">
-        <v>14.42464740377152</v>
+        <v>13.3685997003235</v>
       </c>
       <c r="F16">
-        <v>50.80966394913637</v>
+        <v>53.94283645914325</v>
       </c>
       <c r="G16">
-        <v>3.743863201115876</v>
+        <v>2.019714238588028</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28.19941076450156</v>
+        <v>36.50925334951432</v>
       </c>
       <c r="L16">
-        <v>9.505375085815421</v>
+        <v>6.572253058798512</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.67771513974667</v>
+        <v>12.56047205378274</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.10015080833689</v>
+        <v>14.27741820031624</v>
       </c>
       <c r="D17">
-        <v>9.86418327321854</v>
+        <v>6.167161882020014</v>
       </c>
       <c r="E17">
-        <v>14.39674159220981</v>
+        <v>13.11866206954883</v>
       </c>
       <c r="F17">
-        <v>50.64639214867022</v>
+        <v>52.86867314931574</v>
       </c>
       <c r="G17">
-        <v>3.746010660552404</v>
+        <v>2.027704417258868</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.00940752722104</v>
+        <v>35.60911215659967</v>
       </c>
       <c r="L17">
-        <v>9.506800215920439</v>
+        <v>6.502323166544442</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.7062702436834</v>
+        <v>12.68738857661418</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.07475154218981</v>
+        <v>14.10646685164708</v>
       </c>
       <c r="D18">
-        <v>9.871197945443184</v>
+        <v>6.16762725514028</v>
       </c>
       <c r="E18">
-        <v>14.38104021935738</v>
+        <v>12.97559195073912</v>
       </c>
       <c r="F18">
-        <v>50.55379490462071</v>
+        <v>52.25484585865432</v>
       </c>
       <c r="G18">
-        <v>3.747261349996491</v>
+        <v>2.032276251132631</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.90039331179093</v>
+        <v>35.08845748459811</v>
       </c>
       <c r="L18">
-        <v>9.507798554935253</v>
+        <v>6.462845733178761</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.72289697685333</v>
+        <v>12.76080966490032</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>14.06620902834271</v>
+        <v>14.04863149665518</v>
       </c>
       <c r="D19">
-        <v>9.873602808458367</v>
+        <v>6.168013850862162</v>
       </c>
       <c r="E19">
-        <v>14.37578421928244</v>
+        <v>12.92726031382876</v>
       </c>
       <c r="F19">
-        <v>50.52267022072557</v>
+        <v>52.0476592808508</v>
       </c>
       <c r="G19">
-        <v>3.747687484812619</v>
+        <v>2.033820640042444</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.86353313456089</v>
+        <v>34.91163795846142</v>
       </c>
       <c r="L19">
-        <v>9.508167232543151</v>
+        <v>6.449602904952472</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.72856130190206</v>
+        <v>12.78573892381284</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.10487870578927</v>
+        <v>14.30908143867278</v>
       </c>
       <c r="D20">
-        <v>9.86289919311665</v>
+        <v>6.167187207355792</v>
       </c>
       <c r="E20">
-        <v>14.3996761140755</v>
+        <v>13.14519509367373</v>
       </c>
       <c r="F20">
-        <v>50.66363730395975</v>
+        <v>52.98259487714606</v>
       </c>
       <c r="G20">
-        <v>3.745780454208641</v>
+        <v>2.026856456755235</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.02960656228396</v>
+        <v>35.70522744736201</v>
       </c>
       <c r="L20">
-        <v>9.506630013829033</v>
+        <v>6.509689235397582</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.703209537362</v>
+        <v>12.67383382692362</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.23870792616153</v>
+        <v>15.18885171328887</v>
       </c>
       <c r="D21">
-        <v>9.829020298982639</v>
+        <v>6.182059871508406</v>
       </c>
       <c r="E21">
-        <v>14.48410595424259</v>
+        <v>13.88638248349036</v>
       </c>
       <c r="F21">
-        <v>51.15281355923464</v>
+        <v>56.17532686590098</v>
       </c>
       <c r="G21">
-        <v>3.739558169624834</v>
+        <v>2.00312743464409</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28.59055340782293</v>
+        <v>38.33948165830786</v>
       </c>
       <c r="L21">
-        <v>9.503601285225423</v>
+        <v>6.720819059268209</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.62045141072534</v>
+        <v>12.30310835918937</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.32898876923323</v>
+        <v>15.76951595125512</v>
       </c>
       <c r="D22">
-        <v>9.808443125853552</v>
+        <v>6.207213605883217</v>
       </c>
       <c r="E22">
-        <v>14.54234260821584</v>
+        <v>14.37941955433572</v>
       </c>
       <c r="F22">
-        <v>51.48379128947094</v>
+        <v>58.30983442519377</v>
       </c>
       <c r="G22">
-        <v>3.73562847396561</v>
+        <v>1.987261089285235</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.95876086758516</v>
+        <v>40.04412374771933</v>
       </c>
       <c r="L22">
-        <v>9.503217677990467</v>
+        <v>6.86659593601083</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.56816772523521</v>
+        <v>12.06534805849679</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.2805527552102</v>
+        <v>15.45891917492822</v>
       </c>
       <c r="D23">
-        <v>9.819281632448922</v>
+        <v>6.192214421665844</v>
       </c>
       <c r="E23">
-        <v>14.51098367346628</v>
+        <v>14.11533880335485</v>
       </c>
       <c r="F23">
-        <v>51.30613162880733</v>
+        <v>57.16551221304207</v>
       </c>
       <c r="G23">
-        <v>3.737713362849974</v>
+        <v>1.995770082951019</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.76213439297939</v>
+        <v>39.1353777969039</v>
       </c>
       <c r="L23">
-        <v>9.503276171108393</v>
+        <v>6.788013333538314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.59590750358236</v>
+        <v>12.19178126798944</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.102740229831</v>
+        <v>14.29476575077478</v>
       </c>
       <c r="D24">
-        <v>9.863479174325736</v>
+        <v>6.167171428329519</v>
       </c>
       <c r="E24">
-        <v>14.39834835075636</v>
+        <v>13.1331975993083</v>
       </c>
       <c r="F24">
-        <v>50.65583680934825</v>
+        <v>52.93107938573439</v>
       </c>
       <c r="G24">
-        <v>3.745884480375864</v>
+        <v>2.027239886206134</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.0204738805128</v>
+        <v>35.66178363168034</v>
       </c>
       <c r="L24">
-        <v>9.506706404668233</v>
+        <v>6.506356785402247</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.70459262850644</v>
+        <v>12.67996051877378</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.92362641806514</v>
+        <v>13.05086685671174</v>
       </c>
       <c r="D25">
-        <v>9.917796825550628</v>
+        <v>6.192637747790973</v>
       </c>
       <c r="E25">
-        <v>14.29023020232255</v>
+        <v>12.09961211276602</v>
       </c>
       <c r="F25">
-        <v>50.00476045402417</v>
+        <v>48.51402607656462</v>
       </c>
       <c r="G25">
-        <v>3.755292818234081</v>
+        <v>2.060319327141015</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.23131811722122</v>
+        <v>31.80057167396768</v>
       </c>
       <c r="L25">
-        <v>9.51723224210189</v>
+        <v>6.230657828989706</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.82957375051956</v>
+        <v>13.22263650694524</v>
       </c>
       <c r="O25">
         <v>0</v>
